--- a/rosetta/residue specific correlations.xlsx
+++ b/rosetta/residue specific correlations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Ubq position</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>hydrophobic</t>
+  </si>
+  <si>
+    <t>low fitness (&lt;0)</t>
+  </si>
+  <si>
+    <t>high fitness (&gt;0)</t>
+  </si>
+  <si>
+    <t>low ddG (&lt;0)</t>
+  </si>
+  <si>
+    <t>high ddG (&gt;0)</t>
   </si>
 </sst>
 </file>
@@ -149,6 +161,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>by amino</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> acid type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -629,6 +665,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>by fitness/ddG cut-offs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1244,16 +1299,16 @@
                   <c:v>charged</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>low fitness</c:v>
+                  <c:v>low fitness (&lt;0)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>high fitness</c:v>
+                  <c:v>high fitness (&gt;0)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>low ddG</c:v>
+                  <c:v>low ddG (&lt;0)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>high ddG</c:v>
+                  <c:v>high ddG (&gt;0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1433,16 +1488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1788,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F27" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2975,7 +3030,7 @@
     </row>
     <row r="7" spans="1:80">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3213,7 +3268,7 @@
     </row>
     <row r="8" spans="1:80">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3334,7 +3389,7 @@
     </row>
     <row r="9" spans="1:80">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3485,7 +3540,7 @@
     </row>
     <row r="10" spans="1:80">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/rosetta/residue specific correlations.xlsx
+++ b/rosetta/residue specific correlations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="10220" yWindow="0" windowWidth="15380" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Ubq position</t>
   </si>
@@ -74,12 +74,69 @@
   <si>
     <t>high ddG (&gt;0)</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +160,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +185,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -129,17 +193,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,7 +270,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -209,7 +282,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -245,7 +318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$22</c:f>
+              <c:f>Sheet1!$C$15:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -285,7 +358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>Sheet1!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -297,7 +370,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -333,7 +406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$22</c:f>
+              <c:f>Sheet1!$D$15:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -373,7 +446,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$13</c:f>
+              <c:f>Sheet1!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -385,7 +458,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -421,7 +494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$E$22</c:f>
+              <c:f>Sheet1!$E$15:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -461,7 +534,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$13</c:f>
+              <c:f>Sheet1!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +546,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$22</c:f>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -509,7 +582,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$14:$F$22</c:f>
+              <c:f>Sheet1!$F$15:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -553,11 +626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127377464"/>
-        <c:axId val="2139023672"/>
+        <c:axId val="2110162728"/>
+        <c:axId val="2080552424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127377464"/>
+        <c:axId val="2110162728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139023672"/>
+        <c:crossAx val="2080552424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -599,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139023672"/>
+        <c:axId val="2080552424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127377464"/>
+        <c:crossAx val="2110162728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -696,7 +769,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
+              <c:f>Sheet1!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -708,7 +781,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -744,7 +817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$C$34</c:f>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -784,7 +857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$25</c:f>
+              <c:f>Sheet1!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +869,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -832,7 +905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$26:$D$34</c:f>
+              <c:f>Sheet1!$D$27:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -872,7 +945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$25</c:f>
+              <c:f>Sheet1!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,7 +957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -920,7 +993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$26:$E$34</c:f>
+              <c:f>Sheet1!$E$27:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -960,7 +1033,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$25</c:f>
+              <c:f>Sheet1!$F$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -972,7 +1045,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$34</c:f>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1008,7 +1081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$26:$F$34</c:f>
+              <c:f>Sheet1!$F$27:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1052,11 +1125,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2134654264"/>
-        <c:axId val="2140663112"/>
+        <c:axId val="2125809336"/>
+        <c:axId val="2125815176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134654264"/>
+        <c:axId val="2125809336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140663112"/>
+        <c:crossAx val="2125815176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140663112"/>
+        <c:axId val="2125815176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134654264"/>
+        <c:crossAx val="2125809336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,7 +1273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$CA$1</c:f>
+              <c:f>Sheet1!$CA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1216,7 +1289,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$CB$2:$CB$10</c:f>
+                <c:f>Sheet1!$CB$3:$CB$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
@@ -1249,7 +1322,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$CB$2:$CB$10</c:f>
+                <c:f>Sheet1!$CB$3:$CB$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
@@ -1283,7 +1356,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1315,7 +1388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$CA$2:$CA$10</c:f>
+              <c:f>Sheet1!$CA$3:$CA$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1356,11 +1429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140959432"/>
-        <c:axId val="2141081208"/>
+        <c:axId val="2125843736"/>
+        <c:axId val="2125846712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140959432"/>
+        <c:axId val="2125843736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141081208"/>
+        <c:crossAx val="2125846712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141081208"/>
+        <c:axId val="2125846712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,11 +1480,1119 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140959432"/>
+        <c:crossAx val="2125843736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hydrophobic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>polar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>charged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125888216"/>
+        <c:axId val="2125893816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2125888216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correlation coefficient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125893816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2125893816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125888216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>low fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>high fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>low ddG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>high ddG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125929768"/>
+        <c:axId val="2125935608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2125929768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correlation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> coefficent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125935608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2125935608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125929768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All amino acids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$G$2,Sheet1!$L$2,Sheet1!$AB$2,Sheet1!$AD$2,Sheet1!$AH$2,Sheet1!$AW$2,Sheet1!$BL$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$3,Sheet1!$L$3,Sheet1!$AB$3,Sheet1!$AD$3,Sheet1!$AH$3,Sheet1!$AW$3,Sheet1!$BL$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.204206609951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.442786279453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118999416244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0167378575053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.907876742861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.586872584841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0210293898725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2125955848"/>
+        <c:axId val="2125958856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2125955848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125958856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125958856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125955848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1430,13 +2611,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1460,13 +2641,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>69849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>65152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1490,13 +2671,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1511,6 +2692,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1841,2227 +3112,2443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB34"/>
+  <dimension ref="A1:CB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BX1" sqref="BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:80">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AM1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AR1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AV1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="BI1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="BR1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1">
-        <v>37</v>
-      </c>
-      <c r="AM1">
-        <v>38</v>
-      </c>
-      <c r="AN1">
-        <v>39</v>
-      </c>
-      <c r="AO1">
-        <v>40</v>
-      </c>
-      <c r="AP1">
-        <v>41</v>
-      </c>
-      <c r="AQ1">
-        <v>42</v>
-      </c>
-      <c r="AR1">
-        <v>43</v>
-      </c>
-      <c r="AS1">
-        <v>44</v>
-      </c>
-      <c r="AT1">
-        <v>45</v>
-      </c>
-      <c r="AU1">
-        <v>46</v>
-      </c>
-      <c r="AV1">
-        <v>47</v>
-      </c>
-      <c r="AW1">
-        <v>48</v>
-      </c>
-      <c r="AX1">
-        <v>49</v>
-      </c>
-      <c r="AY1">
-        <v>50</v>
-      </c>
-      <c r="AZ1">
-        <v>51</v>
-      </c>
-      <c r="BA1">
-        <v>52</v>
-      </c>
-      <c r="BB1">
-        <v>53</v>
-      </c>
-      <c r="BC1">
-        <v>54</v>
-      </c>
-      <c r="BD1">
-        <v>55</v>
-      </c>
-      <c r="BE1">
-        <v>56</v>
-      </c>
-      <c r="BF1">
-        <v>57</v>
-      </c>
-      <c r="BG1">
-        <v>58</v>
-      </c>
-      <c r="BH1">
-        <v>59</v>
-      </c>
-      <c r="BI1">
-        <v>60</v>
-      </c>
-      <c r="BJ1">
-        <v>61</v>
-      </c>
-      <c r="BK1">
-        <v>62</v>
-      </c>
-      <c r="BL1">
-        <v>63</v>
-      </c>
-      <c r="BM1">
-        <v>64</v>
-      </c>
-      <c r="BN1">
-        <v>65</v>
-      </c>
-      <c r="BO1">
-        <v>66</v>
-      </c>
-      <c r="BP1">
-        <v>67</v>
-      </c>
-      <c r="BQ1">
-        <v>68</v>
-      </c>
-      <c r="BR1">
-        <v>69</v>
-      </c>
-      <c r="BS1">
-        <v>70</v>
-      </c>
-      <c r="BT1">
-        <v>71</v>
-      </c>
-      <c r="BU1">
-        <v>72</v>
-      </c>
-      <c r="BV1">
-        <v>73</v>
-      </c>
-      <c r="BW1">
-        <v>74</v>
-      </c>
-      <c r="BX1">
-        <v>75</v>
-      </c>
-      <c r="BY1">
-        <v>76</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:80">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>-6.6207369997799997E-2</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>-0.37102626026699997</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>-0.52906723416000001</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>-0.74724155773199996</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0.20420660995100001</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0.32210380457400001</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>6.3371823999900004E-2</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>-2.86781502072E-2</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>0.23546564673000001</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>-0.44278627945299998</v>
+        <v>11</v>
       </c>
       <c r="M2">
-        <v>0.58268336075399996</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>-0.151371048221</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>-0.61150227172299998</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>-0.61250811997400001</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>0.22662985974300001</v>
+        <v>16</v>
       </c>
       <c r="R2">
-        <v>-0.88617197776099998</v>
+        <v>17</v>
       </c>
       <c r="S2">
-        <v>0.33994074823300002</v>
+        <v>18</v>
       </c>
       <c r="T2">
-        <v>-3.2527029159399998E-4</v>
+        <v>19</v>
       </c>
       <c r="U2">
-        <v>-0.13533390871199999</v>
+        <v>20</v>
       </c>
       <c r="V2">
-        <v>-0.72569626130800002</v>
+        <v>21</v>
       </c>
       <c r="W2">
-        <v>-8.8309413768200007E-2</v>
+        <v>22</v>
       </c>
       <c r="X2">
-        <v>-0.27384519195700002</v>
+        <v>23</v>
       </c>
       <c r="Y2">
-        <v>0.35387562107999998</v>
+        <v>24</v>
       </c>
       <c r="Z2">
-        <v>-0.96393175766799999</v>
+        <v>25</v>
       </c>
       <c r="AA2">
-        <v>-0.16114350818699999</v>
+        <v>26</v>
       </c>
       <c r="AB2">
-        <v>0.118999416244</v>
+        <v>27</v>
       </c>
       <c r="AC2">
-        <v>-0.22266926644400001</v>
+        <v>28</v>
       </c>
       <c r="AD2">
-        <v>1.6737857505300002E-2</v>
+        <v>29</v>
       </c>
       <c r="AE2">
-        <v>-0.35330628134800002</v>
+        <v>30</v>
       </c>
       <c r="AF2">
-        <v>-0.86774707674200002</v>
+        <v>31</v>
       </c>
       <c r="AG2">
-        <v>-0.92092380878699998</v>
+        <v>32</v>
       </c>
       <c r="AH2">
-        <v>-0.90787674286099995</v>
+        <v>33</v>
       </c>
       <c r="AI2">
-        <v>-0.122890589267</v>
+        <v>34</v>
       </c>
       <c r="AJ2">
-        <v>-0.31819906089200001</v>
+        <v>35</v>
       </c>
       <c r="AK2">
-        <v>-0.21210910612799999</v>
+        <v>36</v>
       </c>
       <c r="AL2">
-        <v>-2.3117690811299999E-2</v>
+        <v>37</v>
       </c>
       <c r="AM2">
-        <v>0.60473954108399997</v>
+        <v>38</v>
       </c>
       <c r="AN2">
-        <v>0.62752602660400003</v>
+        <v>39</v>
       </c>
       <c r="AO2">
-        <v>-0.52405656193200001</v>
+        <v>40</v>
       </c>
       <c r="AP2">
-        <v>-0.24456894605500001</v>
+        <v>41</v>
       </c>
       <c r="AQ2">
-        <v>0.50951346075299997</v>
+        <v>42</v>
       </c>
       <c r="AR2">
-        <v>-0.85985186431799998</v>
+        <v>43</v>
       </c>
       <c r="AS2">
-        <v>-0.17405051077</v>
+        <v>44</v>
       </c>
       <c r="AT2">
-        <v>-0.473313721292</v>
+        <v>45</v>
       </c>
       <c r="AU2">
-        <v>0.10459769782599999</v>
+        <v>46</v>
       </c>
       <c r="AV2">
-        <v>0.62438329691700001</v>
+        <v>47</v>
       </c>
       <c r="AW2">
-        <v>0.58687258484100002</v>
+        <v>48</v>
       </c>
       <c r="AX2">
-        <v>5.2093372090900002E-2</v>
+        <v>49</v>
       </c>
       <c r="AY2">
-        <v>-0.71973047384599997</v>
+        <v>50</v>
       </c>
       <c r="AZ2">
-        <v>-8.4873192471900005E-2</v>
+        <v>51</v>
       </c>
       <c r="BA2">
-        <v>-0.177821439597</v>
+        <v>52</v>
       </c>
       <c r="BB2">
-        <v>0.38099085335999999</v>
+        <v>53</v>
       </c>
       <c r="BC2">
-        <v>6.0110466627699997E-2</v>
+        <v>54</v>
       </c>
       <c r="BD2">
-        <v>-2.0429577514399999E-2</v>
+        <v>55</v>
       </c>
       <c r="BE2">
-        <v>-0.62238925350499996</v>
+        <v>56</v>
       </c>
       <c r="BF2">
-        <v>0.159474640295</v>
+        <v>57</v>
       </c>
       <c r="BG2">
-        <v>-0.32438544800300001</v>
+        <v>58</v>
       </c>
       <c r="BH2">
-        <v>-0.66804210978199996</v>
+        <v>59</v>
       </c>
       <c r="BI2">
-        <v>-0.231843701564</v>
+        <v>60</v>
       </c>
       <c r="BJ2">
-        <v>-0.26122463304499999</v>
+        <v>61</v>
       </c>
       <c r="BK2">
-        <v>-0.583789472556</v>
+        <v>62</v>
       </c>
       <c r="BL2">
-        <v>2.1029389872499998E-2</v>
+        <v>63</v>
       </c>
       <c r="BM2">
-        <v>0.12512982349499999</v>
+        <v>64</v>
       </c>
       <c r="BN2">
-        <v>-0.69990797386299997</v>
+        <v>65</v>
       </c>
       <c r="BO2">
-        <v>-2.2470393596000001E-2</v>
+        <v>66</v>
       </c>
       <c r="BP2">
-        <v>-0.57477047476499998</v>
+        <v>67</v>
       </c>
       <c r="BQ2">
-        <v>-0.58868273800299997</v>
+        <v>68</v>
       </c>
       <c r="BR2">
-        <v>-0.50791801718600005</v>
+        <v>69</v>
       </c>
       <c r="BS2">
-        <v>-0.63165549902600004</v>
+        <v>70</v>
       </c>
       <c r="BT2">
-        <v>0.10413871490399999</v>
+        <v>71</v>
       </c>
       <c r="BU2">
-        <v>8.4844312115299997E-2</v>
+        <v>72</v>
       </c>
       <c r="BV2">
-        <v>6.6859675049099995E-2</v>
+        <v>73</v>
       </c>
       <c r="BW2">
-        <v>-0.26769686825200001</v>
+        <v>74</v>
       </c>
       <c r="BX2">
-        <v>-0.18531153498399999</v>
+        <v>75</v>
       </c>
       <c r="BY2">
-        <v>0.121007908081</v>
-      </c>
-      <c r="CA2">
-        <f>AVERAGE(B2:BY2)</f>
-        <v>-0.17757161970874602</v>
-      </c>
-      <c r="CB2">
-        <f>STDEV(B2:BY2)</f>
-        <v>0.41223622780799712</v>
+        <v>76</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:80">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.178230659998</v>
+        <v>-6.6207369997799997E-2</v>
       </c>
       <c r="D3">
-        <v>5.7242954688499999E-2</v>
+        <v>-0.37102626026699997</v>
       </c>
       <c r="E3">
-        <v>0.74357497772000003</v>
+        <v>-0.52906723416000001</v>
       </c>
       <c r="F3">
-        <v>-0.475128101325</v>
+        <v>-0.74724155773199996</v>
       </c>
       <c r="G3">
-        <v>0.53559176778100004</v>
+        <v>0.20420660995100001</v>
       </c>
       <c r="H3">
-        <v>0.22838687942200001</v>
+        <v>0.32210380457400001</v>
       </c>
       <c r="I3">
-        <v>-0.78709547852899997</v>
+        <v>6.3371823999900004E-2</v>
       </c>
       <c r="J3">
-        <v>0.71410761502200004</v>
+        <v>-2.86781502072E-2</v>
       </c>
       <c r="K3">
-        <v>-0.75754917415699996</v>
+        <v>0.23546564673000001</v>
       </c>
       <c r="L3">
-        <v>-0.68180996913000003</v>
+        <v>-0.44278627945299998</v>
       </c>
       <c r="M3">
-        <v>0.67444030103800001</v>
+        <v>0.58268336075399996</v>
       </c>
       <c r="N3">
-        <v>-0.63596761981500005</v>
+        <v>-0.151371048221</v>
       </c>
       <c r="O3">
-        <v>-0.69035151359299995</v>
+        <v>-0.61150227172299998</v>
       </c>
       <c r="P3">
-        <v>8.3355224958999996E-3</v>
+        <v>-0.61250811997400001</v>
       </c>
       <c r="Q3">
-        <v>0.51600281095800005</v>
+        <v>0.22662985974300001</v>
       </c>
       <c r="R3">
-        <v>0.19501407639400001</v>
+        <v>-0.88617197776099998</v>
       </c>
       <c r="S3">
-        <v>-5.5492871272100001E-2</v>
+        <v>0.33994074823300002</v>
       </c>
       <c r="T3">
-        <v>-0.56738292753300001</v>
+        <v>-3.2527029159399998E-4</v>
       </c>
       <c r="U3">
-        <v>-0.34332648008</v>
+        <v>-0.13533390871199999</v>
       </c>
       <c r="V3">
-        <v>-0.33275260943599999</v>
+        <v>-0.72569626130800002</v>
       </c>
       <c r="W3">
-        <v>-0.60799453097599998</v>
+        <v>-8.8309413768200007E-2</v>
       </c>
       <c r="X3">
-        <v>0.44567610210000003</v>
+        <v>-0.27384519195700002</v>
       </c>
       <c r="Y3">
-        <v>0.35844807296600001</v>
+        <v>0.35387562107999998</v>
       </c>
       <c r="Z3">
-        <v>-0.51447381036899997</v>
+        <v>-0.96393175766799999</v>
       </c>
       <c r="AA3">
-        <v>-0.17090036633399999</v>
+        <v>-0.16114350818699999</v>
       </c>
       <c r="AB3">
-        <v>0.392851058882</v>
+        <v>0.118999416244</v>
       </c>
       <c r="AC3">
-        <v>0.19190847457499999</v>
+        <v>-0.22266926644400001</v>
       </c>
       <c r="AD3">
-        <v>0.189679630919</v>
+        <v>1.6737857505300002E-2</v>
       </c>
       <c r="AE3">
-        <v>-0.81187119021200005</v>
+        <v>-0.35330628134800002</v>
       </c>
       <c r="AF3">
-        <v>-0.85020431131999996</v>
+        <v>-0.86774707674200002</v>
       </c>
       <c r="AG3">
-        <v>0.22773047297999999</v>
+        <v>-0.92092380878699998</v>
       </c>
       <c r="AH3">
-        <v>7.9406145525100003E-2</v>
+        <v>-0.90787674286099995</v>
       </c>
       <c r="AI3">
-        <v>-0.20247702318899999</v>
+        <v>-0.122890589267</v>
       </c>
       <c r="AJ3">
-        <v>-0.69832822680100004</v>
+        <v>-0.31819906089200001</v>
       </c>
       <c r="AK3">
-        <v>0.72715336455400004</v>
+        <v>-0.21210910612799999</v>
       </c>
       <c r="AL3">
-        <v>-0.66718548931099997</v>
+        <v>-2.3117690811299999E-2</v>
       </c>
       <c r="AM3">
-        <v>0.55914672559</v>
+        <v>0.60473954108399997</v>
       </c>
       <c r="AN3">
-        <v>0.80166567204799999</v>
+        <v>0.62752602660400003</v>
       </c>
       <c r="AO3">
-        <v>0.60391728454100002</v>
+        <v>-0.52405656193200001</v>
       </c>
       <c r="AP3">
-        <v>-0.53660917683700005</v>
+        <v>-0.24456894605500001</v>
       </c>
       <c r="AQ3">
-        <v>0.19884207535599999</v>
+        <v>0.50951346075299997</v>
       </c>
       <c r="AR3">
-        <v>-0.88415773228600003</v>
+        <v>-0.85985186431799998</v>
       </c>
       <c r="AS3">
-        <v>0.212514776455</v>
+        <v>-0.17405051077</v>
       </c>
       <c r="AT3">
-        <v>-0.44865767435300002</v>
+        <v>-0.473313721292</v>
       </c>
       <c r="AU3">
-        <v>0.182706312688</v>
+        <v>0.10459769782599999</v>
+      </c>
+      <c r="AV3">
+        <v>0.62438329691700001</v>
       </c>
       <c r="AW3">
-        <v>0.31524798040500002</v>
+        <v>0.58687258484100002</v>
       </c>
       <c r="AX3">
-        <v>-0.169287580602</v>
+        <v>5.2093372090900002E-2</v>
       </c>
       <c r="AY3">
-        <v>0.77684481529799998</v>
+        <v>-0.71973047384599997</v>
       </c>
       <c r="AZ3">
-        <v>-3.7482082605899997E-2</v>
+        <v>-8.4873192471900005E-2</v>
       </c>
       <c r="BA3">
-        <v>0.20057335754300001</v>
+        <v>-0.177821439597</v>
       </c>
       <c r="BB3">
-        <v>1.46769732962E-2</v>
+        <v>0.38099085335999999</v>
       </c>
       <c r="BC3">
-        <v>-9.2263247080100003E-2</v>
+        <v>6.0110466627699997E-2</v>
       </c>
       <c r="BD3">
-        <v>-0.12422606907100001</v>
+        <v>-2.0429577514399999E-2</v>
       </c>
       <c r="BE3">
-        <v>-0.91909914920000002</v>
+        <v>-0.62238925350499996</v>
       </c>
       <c r="BF3">
-        <v>-1.43670629799E-2</v>
+        <v>0.159474640295</v>
       </c>
       <c r="BG3">
-        <v>-1.5193637666099999E-2</v>
+        <v>-0.32438544800300001</v>
       </c>
       <c r="BH3">
-        <v>-0.87786090423200003</v>
+        <v>-0.66804210978199996</v>
       </c>
       <c r="BI3">
-        <v>-0.19485759568700001</v>
+        <v>-0.231843701564</v>
       </c>
       <c r="BJ3">
-        <v>0.71660488884700002</v>
+        <v>-0.26122463304499999</v>
       </c>
       <c r="BK3">
-        <v>-0.27924888526500002</v>
+        <v>-0.583789472556</v>
       </c>
       <c r="BL3">
-        <v>2.3911616856999999E-2</v>
+        <v>2.1029389872499998E-2</v>
       </c>
       <c r="BM3">
-        <v>0.41188220471600001</v>
+        <v>0.12512982349499999</v>
       </c>
       <c r="BN3">
-        <v>0.22314273500099999</v>
+        <v>-0.69990797386299997</v>
       </c>
       <c r="BO3">
-        <v>0.252710096218</v>
+        <v>-2.2470393596000001E-2</v>
       </c>
       <c r="BP3">
-        <v>-0.63671453235499997</v>
+        <v>-0.57477047476499998</v>
       </c>
       <c r="BQ3">
-        <v>-0.48955184150300002</v>
+        <v>-0.58868273800299997</v>
       </c>
       <c r="BR3">
-        <v>3.6464469800200003E-2</v>
+        <v>-0.50791801718600005</v>
       </c>
       <c r="BS3">
-        <v>-0.53656658500800003</v>
+        <v>-0.63165549902600004</v>
       </c>
       <c r="BT3">
-        <v>0.722260875292</v>
+        <v>0.10413871490399999</v>
       </c>
       <c r="BU3">
-        <v>-0.12890972122700001</v>
+        <v>8.4844312115299997E-2</v>
       </c>
       <c r="BV3">
-        <v>-0.82978530505100001</v>
+        <v>6.6859675049099995E-2</v>
       </c>
       <c r="BW3">
-        <v>0.99103378275099996</v>
+        <v>-0.26769686825200001</v>
       </c>
       <c r="BX3">
-        <v>0.79693245242999999</v>
+        <v>-0.18531153498399999</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0.121007908081</v>
       </c>
       <c r="CA3">
-        <f t="shared" ref="CA3:CA10" si="0">AVERAGE(B3:BY3)</f>
-        <v>-2.5556424176482649E-2</v>
+        <f>AVERAGE(B3:BY3)</f>
+        <v>-0.17757161970874602</v>
       </c>
       <c r="CB3">
-        <f t="shared" ref="CB3:CB10" si="1">STDEV(B3:BY3)</f>
-        <v>0.52556604124057604</v>
+        <f>STDEV(B3:BY3)</f>
+        <v>0.41223622780799712</v>
       </c>
     </row>
     <row r="4" spans="1:80">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-7.0261994441600001E-2</v>
+        <v>-0.178230659998</v>
       </c>
       <c r="D4">
-        <v>-0.37514169976099998</v>
+        <v>5.7242954688499999E-2</v>
       </c>
       <c r="E4">
-        <v>-0.81752320674300005</v>
+        <v>0.74357497772000003</v>
       </c>
       <c r="F4">
-        <v>9.2852689880300002E-2</v>
+        <v>-0.475128101325</v>
       </c>
       <c r="G4">
-        <v>-0.35832889888000002</v>
+        <v>0.53559176778100004</v>
       </c>
       <c r="H4">
-        <v>4.5856038866200002E-2</v>
+        <v>0.22838687942200001</v>
       </c>
       <c r="I4">
-        <v>-0.29164516766499998</v>
+        <v>-0.78709547852899997</v>
       </c>
       <c r="J4">
-        <v>-0.231492709405</v>
+        <v>0.71410761502200004</v>
       </c>
       <c r="K4">
-        <v>0.24578549019199999</v>
+        <v>-0.75754917415699996</v>
       </c>
       <c r="L4">
-        <v>-0.93180218619400002</v>
+        <v>-0.68180996913000003</v>
       </c>
       <c r="M4">
-        <v>0.56336884358999995</v>
+        <v>0.67444030103800001</v>
       </c>
       <c r="N4">
-        <v>3.8075861874900002E-2</v>
+        <v>-0.63596761981500005</v>
       </c>
       <c r="O4">
-        <v>-0.53671708772799998</v>
+        <v>-0.69035151359299995</v>
       </c>
       <c r="P4">
-        <v>-0.63173498258100003</v>
+        <v>8.3355224958999996E-3</v>
       </c>
       <c r="Q4">
-        <v>0.25182733019100001</v>
+        <v>0.51600281095800005</v>
       </c>
       <c r="R4">
-        <v>-0.41834661784799998</v>
+        <v>0.19501407639400001</v>
       </c>
       <c r="S4">
-        <v>0.48375232326500001</v>
+        <v>-5.5492871272100001E-2</v>
       </c>
       <c r="T4">
-        <v>0.48437614168900001</v>
+        <v>-0.56738292753300001</v>
       </c>
       <c r="U4">
-        <v>-0.26888434361800001</v>
+        <v>-0.34332648008</v>
       </c>
       <c r="V4">
-        <v>-0.92483039454299998</v>
+        <v>-0.33275260943599999</v>
       </c>
       <c r="W4">
-        <v>-0.20260649391999999</v>
+        <v>-0.60799453097599998</v>
       </c>
       <c r="X4">
-        <v>-0.15112411656999999</v>
+        <v>0.44567610210000003</v>
       </c>
       <c r="Y4">
-        <v>0.55693952398699997</v>
+        <v>0.35844807296600001</v>
       </c>
       <c r="Z4">
-        <v>-0.99584925747200004</v>
+        <v>-0.51447381036899997</v>
       </c>
       <c r="AA4">
-        <v>0.49641939035999999</v>
+        <v>-0.17090036633399999</v>
       </c>
       <c r="AB4">
-        <v>-0.50600077454199999</v>
+        <v>0.392851058882</v>
       </c>
       <c r="AC4">
-        <v>-0.73491502991400004</v>
+        <v>0.19190847457499999</v>
       </c>
       <c r="AD4">
-        <v>-0.13001361569700001</v>
+        <v>0.189679630919</v>
       </c>
       <c r="AE4">
-        <v>-0.21649558124599999</v>
+        <v>-0.81187119021200005</v>
       </c>
       <c r="AF4">
-        <v>-0.97909820090699995</v>
+        <v>-0.85020431131999996</v>
       </c>
       <c r="AG4">
-        <v>-0.98459261070600002</v>
+        <v>0.22773047297999999</v>
       </c>
       <c r="AH4">
-        <v>-0.95743727726500005</v>
+        <v>7.9406145525100003E-2</v>
       </c>
       <c r="AI4">
-        <v>-0.47401657484199999</v>
+        <v>-0.20247702318899999</v>
       </c>
       <c r="AJ4">
-        <v>-0.82370154192400002</v>
+        <v>-0.69832822680100004</v>
       </c>
       <c r="AK4">
-        <v>-0.77667199843599999</v>
+        <v>0.72715336455400004</v>
       </c>
       <c r="AL4">
-        <v>-0.19083856074200001</v>
+        <v>-0.66718548931099997</v>
       </c>
       <c r="AM4">
-        <v>-0.31427296088899997</v>
+        <v>0.55914672559</v>
       </c>
       <c r="AN4">
-        <v>-0.24099062520100001</v>
+        <v>0.80166567204799999</v>
       </c>
       <c r="AO4">
-        <v>-0.87196510366799995</v>
+        <v>0.60391728454100002</v>
       </c>
       <c r="AP4">
-        <v>-0.40296142942800001</v>
+        <v>-0.53660917683700005</v>
       </c>
       <c r="AQ4">
-        <v>0.56223274459799999</v>
+        <v>0.19884207535599999</v>
       </c>
       <c r="AR4">
-        <v>-1</v>
+        <v>-0.88415773228600003</v>
       </c>
       <c r="AS4">
-        <v>0.237900336346</v>
+        <v>0.212514776455</v>
       </c>
       <c r="AT4">
-        <v>-0.85267173590699996</v>
+        <v>-0.44865767435300002</v>
       </c>
       <c r="AU4">
-        <v>-0.30390204625299999</v>
-      </c>
-      <c r="AV4">
-        <v>0.82447641491599999</v>
+        <v>0.182706312688</v>
       </c>
       <c r="AW4">
-        <v>0.75811881456399999</v>
+        <v>0.31524798040500002</v>
       </c>
       <c r="AX4">
-        <v>0.58112727954499999</v>
+        <v>-0.169287580602</v>
       </c>
       <c r="AY4">
-        <v>3.6227835902099999E-2</v>
+        <v>0.77684481529799998</v>
       </c>
       <c r="AZ4">
-        <v>-0.406774419705</v>
+        <v>-3.7482082605899997E-2</v>
       </c>
       <c r="BA4">
-        <v>0.29219834980999998</v>
+        <v>0.20057335754300001</v>
       </c>
       <c r="BB4">
-        <v>0.47486639281499998</v>
+        <v>1.46769732962E-2</v>
       </c>
       <c r="BC4">
-        <v>0.66057314180899995</v>
+        <v>-9.2263247080100003E-2</v>
       </c>
       <c r="BD4">
-        <v>-0.66627487318900003</v>
+        <v>-0.12422606907100001</v>
       </c>
       <c r="BE4">
-        <v>-0.26042352970999999</v>
+        <v>-0.91909914920000002</v>
       </c>
       <c r="BF4">
-        <v>0.21251307908799999</v>
+        <v>-1.43670629799E-2</v>
       </c>
       <c r="BG4">
-        <v>-0.82933748583900002</v>
+        <v>-1.5193637666099999E-2</v>
       </c>
       <c r="BH4">
-        <v>-0.63401991593700002</v>
+        <v>-0.87786090423200003</v>
       </c>
       <c r="BI4">
-        <v>-0.78954901603299998</v>
+        <v>-0.19485759568700001</v>
       </c>
       <c r="BJ4">
-        <v>-0.332406050949</v>
+        <v>0.71660488884700002</v>
       </c>
       <c r="BK4">
-        <v>-0.81739533324699998</v>
+        <v>-0.27924888526500002</v>
       </c>
       <c r="BL4">
-        <v>-8.2171442893499994E-2</v>
+        <v>2.3911616856999999E-2</v>
       </c>
       <c r="BM4">
-        <v>0.589761932775</v>
+        <v>0.41188220471600001</v>
       </c>
       <c r="BN4">
-        <v>-0.87286295302100003</v>
+        <v>0.22314273500099999</v>
       </c>
       <c r="BO4">
-        <v>0.14892600532200001</v>
+        <v>0.252710096218</v>
       </c>
       <c r="BP4">
-        <v>-0.71199192213200002</v>
+        <v>-0.63671453235499997</v>
       </c>
       <c r="BQ4">
-        <v>-0.375062880401</v>
+        <v>-0.48955184150300002</v>
       </c>
       <c r="BR4">
-        <v>-0.232892386566</v>
+        <v>3.6464469800200003E-2</v>
       </c>
       <c r="BS4">
-        <v>0.581622026156</v>
+        <v>-0.53656658500800003</v>
       </c>
       <c r="BT4">
-        <v>0.90927238139599997</v>
+        <v>0.722260875292</v>
       </c>
       <c r="BU4">
-        <v>-0.25280457723100003</v>
+        <v>-0.12890972122700001</v>
       </c>
       <c r="BV4">
-        <v>-9.5514946945799997E-2</v>
+        <v>-0.82978530505100001</v>
       </c>
       <c r="BW4">
-        <v>-0.61996393631699998</v>
+        <v>0.99103378275099996</v>
       </c>
       <c r="BX4">
-        <v>-0.45485157154099998</v>
+        <v>0.79693245242999999</v>
       </c>
       <c r="BY4">
-        <v>-3.1184051661500001E-2</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <f t="shared" si="0"/>
-        <v>-0.21451639143839346</v>
+        <f t="shared" ref="CA4:CA11" si="0">AVERAGE(B4:BY4)</f>
+        <v>-2.5556424176482649E-2</v>
       </c>
       <c r="CB4">
-        <f t="shared" si="1"/>
-        <v>0.52307887409277276</v>
+        <f t="shared" ref="CB4:CB11" si="1">STDEV(B4:BY4)</f>
+        <v>0.52556604124057604</v>
       </c>
     </row>
     <row r="5" spans="1:80">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.64501490477800005</v>
+        <v>-7.0261994441600001E-2</v>
       </c>
       <c r="D5">
-        <v>-0.35294006764300001</v>
+        <v>-0.37514169976099998</v>
       </c>
       <c r="E5">
-        <v>0.94334362496699997</v>
+        <v>-0.81752320674300005</v>
       </c>
       <c r="F5">
-        <v>-0.88631421496399998</v>
+        <v>9.2852689880300002E-2</v>
       </c>
       <c r="G5">
-        <v>-0.45174168418499999</v>
+        <v>-0.35832889888000002</v>
       </c>
       <c r="H5">
-        <v>0.300436838107</v>
+        <v>4.5856038866200002E-2</v>
       </c>
       <c r="I5">
-        <v>0.92391332425999995</v>
+        <v>-0.29164516766499998</v>
       </c>
       <c r="J5">
-        <v>-0.35162346715499998</v>
+        <v>-0.231492709405</v>
       </c>
       <c r="K5">
-        <v>-6.4514955052299996E-2</v>
+        <v>0.24578549019199999</v>
       </c>
       <c r="L5">
-        <v>-0.89189842416099996</v>
+        <v>-0.93180218619400002</v>
+      </c>
+      <c r="M5">
+        <v>0.56336884358999995</v>
       </c>
       <c r="N5">
-        <v>-0.51667347037</v>
+        <v>3.8075861874900002E-2</v>
       </c>
       <c r="O5">
-        <v>-0.362621280303</v>
+        <v>-0.53671708772799998</v>
       </c>
       <c r="P5">
-        <v>-0.18153724650600001</v>
+        <v>-0.63173498258100003</v>
       </c>
       <c r="Q5">
-        <v>-0.96133998979900004</v>
+        <v>0.25182733019100001</v>
       </c>
       <c r="R5">
-        <v>-0.93898603965299998</v>
+        <v>-0.41834661784799998</v>
       </c>
       <c r="S5">
-        <v>0.42308298860900001</v>
+        <v>0.48375232326500001</v>
       </c>
       <c r="T5">
-        <v>0.39566839850399999</v>
+        <v>0.48437614168900001</v>
       </c>
       <c r="U5">
-        <v>5.9764577606300003E-2</v>
+        <v>-0.26888434361800001</v>
       </c>
       <c r="V5">
-        <v>-0.64149943564699996</v>
+        <v>-0.92483039454299998</v>
       </c>
       <c r="W5">
-        <v>0.31221887047199998</v>
+        <v>-0.20260649391999999</v>
       </c>
       <c r="X5">
-        <v>0.97893542482899998</v>
+        <v>-0.15112411656999999</v>
       </c>
       <c r="Y5">
-        <v>0.41653360948399998</v>
+        <v>0.55693952398699997</v>
       </c>
       <c r="Z5">
-        <v>-3.7472077431900001E-2</v>
+        <v>-0.99584925747200004</v>
+      </c>
+      <c r="AA5">
+        <v>0.49641939035999999</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-0.50600077454199999</v>
       </c>
       <c r="AC5">
-        <v>0.71173382231100002</v>
+        <v>-0.73491502991400004</v>
       </c>
       <c r="AD5">
-        <v>-0.84077423185900002</v>
+        <v>-0.13001361569700001</v>
       </c>
       <c r="AE5">
-        <v>0.40462304445199998</v>
+        <v>-0.21649558124599999</v>
       </c>
       <c r="AF5">
-        <v>0.56271811530799998</v>
+        <v>-0.97909820090699995</v>
       </c>
       <c r="AG5">
-        <v>-0.24918690691600001</v>
+        <v>-0.98459261070600002</v>
       </c>
       <c r="AH5">
-        <v>-0.323726247942</v>
+        <v>-0.95743727726500005</v>
       </c>
       <c r="AI5">
-        <v>-0.61099854597299996</v>
+        <v>-0.47401657484199999</v>
       </c>
       <c r="AJ5">
-        <v>1.9219369694799999E-2</v>
+        <v>-0.82370154192400002</v>
       </c>
       <c r="AK5">
-        <v>-1</v>
+        <v>-0.77667199843599999</v>
       </c>
       <c r="AL5">
-        <v>0.56563442841199996</v>
+        <v>-0.19083856074200001</v>
       </c>
       <c r="AM5">
-        <v>0.79827783100399996</v>
+        <v>-0.31427296088899997</v>
       </c>
       <c r="AN5">
-        <v>0.53476323893800004</v>
+        <v>-0.24099062520100001</v>
       </c>
       <c r="AO5">
-        <v>-0.482827115458</v>
+        <v>-0.87196510366799995</v>
       </c>
       <c r="AP5">
-        <v>0.42610362201099999</v>
+        <v>-0.40296142942800001</v>
       </c>
       <c r="AQ5">
-        <v>-0.95249128757500001</v>
+        <v>0.56223274459799999</v>
       </c>
       <c r="AR5">
         <v>-1</v>
       </c>
       <c r="AS5">
-        <v>-0.75696813777600003</v>
+        <v>0.237900336346</v>
       </c>
       <c r="AT5">
-        <v>-0.84267659538100004</v>
+        <v>-0.85267173590699996</v>
       </c>
       <c r="AU5">
-        <v>0.15816471372499999</v>
+        <v>-0.30390204625299999</v>
+      </c>
+      <c r="AV5">
+        <v>0.82447641491599999</v>
       </c>
       <c r="AW5">
-        <v>0.88251175106299995</v>
+        <v>0.75811881456399999</v>
       </c>
       <c r="AX5">
-        <v>-0.470385972895</v>
+        <v>0.58112727954499999</v>
       </c>
       <c r="AY5">
-        <v>-0.79352320549900002</v>
+        <v>3.6227835902099999E-2</v>
       </c>
       <c r="AZ5">
-        <v>7.4595185108400006E-2</v>
+        <v>-0.406774419705</v>
       </c>
       <c r="BA5">
-        <v>-0.79773416922600004</v>
+        <v>0.29219834980999998</v>
       </c>
       <c r="BB5">
-        <v>0.87535134208800003</v>
+        <v>0.47486639281499998</v>
       </c>
       <c r="BC5">
-        <v>-0.69459299296999999</v>
+        <v>0.66057314180899995</v>
       </c>
       <c r="BD5">
-        <v>0.31521893945500001</v>
+        <v>-0.66627487318900003</v>
+      </c>
+      <c r="BE5">
+        <v>-0.26042352970999999</v>
       </c>
       <c r="BF5">
-        <v>0.868749875472</v>
+        <v>0.21251307908799999</v>
       </c>
       <c r="BG5">
-        <v>0.67719218420600003</v>
+        <v>-0.82933748583900002</v>
       </c>
       <c r="BH5">
-        <v>-0.43075394814899998</v>
+        <v>-0.63401991593700002</v>
       </c>
       <c r="BI5">
-        <v>0.56131317974600003</v>
+        <v>-0.78954901603299998</v>
       </c>
       <c r="BJ5">
-        <v>-0.50610865333099997</v>
+        <v>-0.332406050949</v>
       </c>
       <c r="BK5">
-        <v>0.17233335278699999</v>
+        <v>-0.81739533324699998</v>
       </c>
       <c r="BL5">
-        <v>0.29333879986200001</v>
+        <v>-8.2171442893499994E-2</v>
       </c>
       <c r="BM5">
-        <v>-0.61051961115800002</v>
+        <v>0.589761932775</v>
       </c>
       <c r="BN5">
-        <v>0.155449082983</v>
+        <v>-0.87286295302100003</v>
       </c>
       <c r="BO5">
-        <v>0.155832476916</v>
+        <v>0.14892600532200001</v>
       </c>
       <c r="BP5">
-        <v>-1</v>
+        <v>-0.71199192213200002</v>
       </c>
       <c r="BQ5">
-        <v>-0.23641243205699999</v>
+        <v>-0.375062880401</v>
       </c>
       <c r="BR5">
-        <v>-0.44150845259999999</v>
+        <v>-0.232892386566</v>
+      </c>
+      <c r="BS5">
+        <v>0.581622026156</v>
       </c>
       <c r="BT5">
-        <v>0.48877131525400003</v>
+        <v>0.90927238139599997</v>
       </c>
       <c r="BU5">
-        <v>-0.93676055596200003</v>
+        <v>-0.25280457723100003</v>
+      </c>
+      <c r="BV5">
+        <v>-9.5514946945799997E-2</v>
       </c>
       <c r="BW5">
-        <v>-0.718036372719</v>
+        <v>-0.61996393631699998</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>-0.45485157154099998</v>
+      </c>
+      <c r="BY5">
+        <v>-3.1184051661500001E-2</v>
       </c>
       <c r="CA5">
         <f t="shared" si="0"/>
-        <v>-6.1367239940633339E-2</v>
+        <v>-0.21451639143839346</v>
       </c>
       <c r="CB5">
         <f t="shared" si="1"/>
+        <v>0.52307887409277276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.64501490477800005</v>
+      </c>
+      <c r="D6">
+        <v>-0.35294006764300001</v>
+      </c>
+      <c r="E6">
+        <v>0.94334362496699997</v>
+      </c>
+      <c r="F6">
+        <v>-0.88631421496399998</v>
+      </c>
+      <c r="G6">
+        <v>-0.45174168418499999</v>
+      </c>
+      <c r="H6">
+        <v>0.300436838107</v>
+      </c>
+      <c r="I6">
+        <v>0.92391332425999995</v>
+      </c>
+      <c r="J6">
+        <v>-0.35162346715499998</v>
+      </c>
+      <c r="K6">
+        <v>-6.4514955052299996E-2</v>
+      </c>
+      <c r="L6">
+        <v>-0.89189842416099996</v>
+      </c>
+      <c r="N6">
+        <v>-0.51667347037</v>
+      </c>
+      <c r="O6">
+        <v>-0.362621280303</v>
+      </c>
+      <c r="P6">
+        <v>-0.18153724650600001</v>
+      </c>
+      <c r="Q6">
+        <v>-0.96133998979900004</v>
+      </c>
+      <c r="R6">
+        <v>-0.93898603965299998</v>
+      </c>
+      <c r="S6">
+        <v>0.42308298860900001</v>
+      </c>
+      <c r="T6">
+        <v>0.39566839850399999</v>
+      </c>
+      <c r="U6">
+        <v>5.9764577606300003E-2</v>
+      </c>
+      <c r="V6">
+        <v>-0.64149943564699996</v>
+      </c>
+      <c r="W6">
+        <v>0.31221887047199998</v>
+      </c>
+      <c r="X6">
+        <v>0.97893542482899998</v>
+      </c>
+      <c r="Y6">
+        <v>0.41653360948399998</v>
+      </c>
+      <c r="Z6">
+        <v>-3.7472077431900001E-2</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0.71173382231100002</v>
+      </c>
+      <c r="AD6">
+        <v>-0.84077423185900002</v>
+      </c>
+      <c r="AE6">
+        <v>0.40462304445199998</v>
+      </c>
+      <c r="AF6">
+        <v>0.56271811530799998</v>
+      </c>
+      <c r="AG6">
+        <v>-0.24918690691600001</v>
+      </c>
+      <c r="AH6">
+        <v>-0.323726247942</v>
+      </c>
+      <c r="AI6">
+        <v>-0.61099854597299996</v>
+      </c>
+      <c r="AJ6">
+        <v>1.9219369694799999E-2</v>
+      </c>
+      <c r="AK6">
+        <v>-1</v>
+      </c>
+      <c r="AL6">
+        <v>0.56563442841199996</v>
+      </c>
+      <c r="AM6">
+        <v>0.79827783100399996</v>
+      </c>
+      <c r="AN6">
+        <v>0.53476323893800004</v>
+      </c>
+      <c r="AO6">
+        <v>-0.482827115458</v>
+      </c>
+      <c r="AP6">
+        <v>0.42610362201099999</v>
+      </c>
+      <c r="AQ6">
+        <v>-0.95249128757500001</v>
+      </c>
+      <c r="AR6">
+        <v>-1</v>
+      </c>
+      <c r="AS6">
+        <v>-0.75696813777600003</v>
+      </c>
+      <c r="AT6">
+        <v>-0.84267659538100004</v>
+      </c>
+      <c r="AU6">
+        <v>0.15816471372499999</v>
+      </c>
+      <c r="AW6">
+        <v>0.88251175106299995</v>
+      </c>
+      <c r="AX6">
+        <v>-0.470385972895</v>
+      </c>
+      <c r="AY6">
+        <v>-0.79352320549900002</v>
+      </c>
+      <c r="AZ6">
+        <v>7.4595185108400006E-2</v>
+      </c>
+      <c r="BA6">
+        <v>-0.79773416922600004</v>
+      </c>
+      <c r="BB6">
+        <v>0.87535134208800003</v>
+      </c>
+      <c r="BC6">
+        <v>-0.69459299296999999</v>
+      </c>
+      <c r="BD6">
+        <v>0.31521893945500001</v>
+      </c>
+      <c r="BF6">
+        <v>0.868749875472</v>
+      </c>
+      <c r="BG6">
+        <v>0.67719218420600003</v>
+      </c>
+      <c r="BH6">
+        <v>-0.43075394814899998</v>
+      </c>
+      <c r="BI6">
+        <v>0.56131317974600003</v>
+      </c>
+      <c r="BJ6">
+        <v>-0.50610865333099997</v>
+      </c>
+      <c r="BK6">
+        <v>0.17233335278699999</v>
+      </c>
+      <c r="BL6">
+        <v>0.29333879986200001</v>
+      </c>
+      <c r="BM6">
+        <v>-0.61051961115800002</v>
+      </c>
+      <c r="BN6">
+        <v>0.155449082983</v>
+      </c>
+      <c r="BO6">
+        <v>0.155832476916</v>
+      </c>
+      <c r="BP6">
+        <v>-1</v>
+      </c>
+      <c r="BQ6">
+        <v>-0.23641243205699999</v>
+      </c>
+      <c r="BR6">
+        <v>-0.44150845259999999</v>
+      </c>
+      <c r="BT6">
+        <v>0.48877131525400003</v>
+      </c>
+      <c r="BU6">
+        <v>-0.93676055596200003</v>
+      </c>
+      <c r="BW6">
+        <v>-0.718036372719</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" si="0"/>
+        <v>-6.1367239940633339E-2</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" si="1"/>
         <v>0.63435110226373981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:80">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-1.56157325293E-2</v>
-      </c>
-      <c r="D7">
-        <v>-5.3296916073299998E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.58957818421599995</v>
-      </c>
-      <c r="F7">
-        <v>-0.74220204592700001</v>
-      </c>
-      <c r="G7">
-        <v>0.20420660995100001</v>
-      </c>
-      <c r="H7">
-        <v>0.33388098436899999</v>
-      </c>
-      <c r="I7">
-        <v>-0.276791371324</v>
-      </c>
-      <c r="J7">
-        <v>-4.18378120843E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.23546564673000001</v>
-      </c>
-      <c r="L7">
-        <v>-0.45003366179900001</v>
-      </c>
-      <c r="M7">
-        <v>0.57607935777999997</v>
-      </c>
-      <c r="N7">
-        <v>6.2156691684699998E-2</v>
-      </c>
-      <c r="O7">
-        <v>-0.56116885518699999</v>
-      </c>
-      <c r="P7">
-        <v>-0.54544902917100002</v>
-      </c>
-      <c r="Q7">
-        <v>0.66431583859700005</v>
-      </c>
-      <c r="R7">
-        <v>-0.88187097962700001</v>
-      </c>
-      <c r="S7">
-        <v>-1</v>
-      </c>
-      <c r="T7">
-        <v>-0.31587778626200003</v>
-      </c>
-      <c r="U7">
-        <v>-0.56687603896600003</v>
-      </c>
-      <c r="V7">
-        <v>-0.78769253849099996</v>
-      </c>
-      <c r="W7">
-        <v>8.4508990461399994E-2</v>
-      </c>
-      <c r="X7">
-        <v>-0.23998667378300001</v>
-      </c>
-      <c r="Y7">
-        <v>0.30579178668500001</v>
-      </c>
-      <c r="Z7">
-        <v>-0.99025906549800002</v>
-      </c>
-      <c r="AA7">
-        <v>-0.85640595561999999</v>
-      </c>
-      <c r="AB7">
-        <v>-7.6769442802000001E-2</v>
-      </c>
-      <c r="AC7">
-        <v>-0.38835175285000001</v>
-      </c>
-      <c r="AD7">
-        <v>-0.87643642423500001</v>
-      </c>
-      <c r="AE7">
-        <v>-0.27699224242600001</v>
-      </c>
-      <c r="AF7">
-        <v>-0.91753588368100003</v>
-      </c>
-      <c r="AG7">
-        <v>-0.92092380878699998</v>
-      </c>
-      <c r="AH7">
-        <v>-0.92049845822599996</v>
-      </c>
-      <c r="AI7">
-        <v>-0.160432976373</v>
-      </c>
-      <c r="AJ7">
-        <v>-0.29212619805099999</v>
-      </c>
-      <c r="AK7">
-        <v>0.12588326720599999</v>
-      </c>
-      <c r="AL7">
-        <v>2.6860080919100002E-3</v>
-      </c>
-      <c r="AM7">
-        <v>0.58488456377099995</v>
-      </c>
-      <c r="AN7">
-        <v>-0.52445928089100002</v>
-      </c>
-      <c r="AO7">
-        <v>-0.24456894605500001</v>
-      </c>
-      <c r="AP7">
-        <v>0.50951346075299997</v>
-      </c>
-      <c r="AQ7">
-        <v>-0.89539356211499999</v>
-      </c>
-      <c r="AR7">
-        <v>-2.2398202498600001E-2</v>
-      </c>
-      <c r="AS7">
-        <v>-0.45352557114699998</v>
-      </c>
-      <c r="AT7">
-        <v>0.141105259713</v>
-      </c>
-      <c r="AU7">
-        <v>0.62438329691700001</v>
-      </c>
-      <c r="AV7">
-        <v>0.58687258484100002</v>
-      </c>
-      <c r="AW7">
-        <v>0.15527866286100001</v>
-      </c>
-      <c r="AX7">
-        <v>-0.71747552599300002</v>
-      </c>
-      <c r="AY7">
-        <v>-0.43088450090399999</v>
-      </c>
-      <c r="AZ7">
-        <v>-0.10530215002</v>
-      </c>
-      <c r="BA7">
-        <v>-0.13176537506399999</v>
-      </c>
-      <c r="BB7">
-        <v>0.134659628753</v>
-      </c>
-      <c r="BC7">
-        <v>0.25517052825600001</v>
-      </c>
-      <c r="BD7">
-        <v>-0.75605206362999999</v>
-      </c>
-      <c r="BE7">
-        <v>-0.27295213495999998</v>
-      </c>
-      <c r="BF7">
-        <v>-0.32438544800300001</v>
-      </c>
-      <c r="BG7">
-        <v>-0.63270579386299997</v>
-      </c>
-      <c r="BH7">
-        <v>-0.20887080173399999</v>
-      </c>
-      <c r="BI7">
-        <v>-0.26468706705700001</v>
-      </c>
-      <c r="BJ7">
-        <v>-0.359273963556</v>
-      </c>
-      <c r="BK7">
-        <v>1.4006676322E-2</v>
-      </c>
-      <c r="BL7">
-        <v>0.12512982349499999</v>
-      </c>
-      <c r="BM7">
-        <v>-0.74369075173499999</v>
-      </c>
-      <c r="BN7">
-        <v>-8.1996249324199993E-2</v>
-      </c>
-      <c r="BO7">
-        <v>-0.52723271725999998</v>
-      </c>
-      <c r="BP7">
-        <v>-0.58868273800299997</v>
-      </c>
-      <c r="BQ7">
-        <v>-0.46785467467300001</v>
-      </c>
-      <c r="BR7">
-        <v>-0.63165549902600004</v>
-      </c>
-      <c r="BS7">
-        <v>-0.42965296230599997</v>
-      </c>
-      <c r="BT7">
-        <v>8.4844312115299997E-2</v>
-      </c>
-      <c r="BU7">
-        <v>0.124058196004</v>
-      </c>
-      <c r="BV7">
-        <v>-0.26769686825200001</v>
-      </c>
-      <c r="BW7">
-        <v>-0.18531153498399999</v>
-      </c>
-      <c r="BX7">
-        <v>0.121007908081</v>
-      </c>
-      <c r="CA7">
-        <f t="shared" si="0"/>
-        <v>-0.23943458844805846</v>
-      </c>
-      <c r="CB7">
-        <f t="shared" si="1"/>
-        <v>0.43361232387930543</v>
       </c>
     </row>
     <row r="8" spans="1:80">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>-1.56157325293E-2</v>
+      </c>
       <c r="D8">
-        <v>-0.55441988208899995</v>
+        <v>-5.3296916073299998E-2</v>
+      </c>
+      <c r="E8">
+        <v>-0.58957818421599995</v>
+      </c>
+      <c r="F8">
+        <v>-0.74220204592700001</v>
+      </c>
+      <c r="G8">
+        <v>0.20420660995100001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.33388098436899999</v>
       </c>
       <c r="I8">
-        <v>-0.52450505064399999</v>
+        <v>-0.276791371324</v>
+      </c>
+      <c r="J8">
+        <v>-4.18378120843E-2</v>
+      </c>
+      <c r="K8">
+        <v>0.23546564673000001</v>
       </c>
       <c r="L8">
-        <v>-0.95221959198200001</v>
+        <v>-0.45003366179900001</v>
       </c>
       <c r="M8">
-        <v>-0.99820386030800001</v>
+        <v>0.57607935777999997</v>
       </c>
       <c r="N8">
-        <v>-9.5108242292199996E-2</v>
+        <v>6.2156691684699998E-2</v>
       </c>
       <c r="O8">
-        <v>-0.32549201026699998</v>
+        <v>-0.56116885518699999</v>
       </c>
       <c r="P8">
-        <v>0.58231494342300005</v>
+        <v>-0.54544902917100002</v>
       </c>
       <c r="Q8">
-        <v>0.50323197247399998</v>
+        <v>0.66431583859700005</v>
       </c>
       <c r="R8">
-        <v>0.56460262993900001</v>
+        <v>-0.88187097962700001</v>
       </c>
       <c r="S8">
-        <v>-0.40170864327</v>
+        <v>-1</v>
       </c>
       <c r="T8">
-        <v>-0.13236534390099999</v>
+        <v>-0.31587778626200003</v>
       </c>
       <c r="U8">
-        <v>0.174616877143</v>
+        <v>-0.56687603896600003</v>
       </c>
       <c r="V8">
-        <v>-0.211489457022</v>
+        <v>-0.78769253849099996</v>
       </c>
       <c r="W8">
-        <v>-0.116529967516</v>
+        <v>8.4508990461399994E-2</v>
       </c>
       <c r="X8">
-        <v>-0.18196313124800001</v>
+        <v>-0.23998667378300001</v>
       </c>
       <c r="Y8">
-        <v>-0.13643006999900001</v>
+        <v>0.30579178668500001</v>
+      </c>
+      <c r="Z8">
+        <v>-0.99025906549800002</v>
       </c>
       <c r="AA8">
-        <v>0.41789669083800002</v>
+        <v>-0.85640595561999999</v>
       </c>
       <c r="AB8">
-        <v>5.3126293675799997E-2</v>
+        <v>-7.6769442802000001E-2</v>
+      </c>
+      <c r="AC8">
+        <v>-0.38835175285000001</v>
       </c>
       <c r="AD8">
-        <v>0.62863697961200005</v>
+        <v>-0.87643642423500001</v>
+      </c>
+      <c r="AE8">
+        <v>-0.27699224242600001</v>
+      </c>
+      <c r="AF8">
+        <v>-0.91753588368100003</v>
       </c>
       <c r="AG8">
-        <v>0.46536901644899997</v>
+        <v>-0.92092380878699998</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>-0.92049845822599996</v>
       </c>
       <c r="AI8">
-        <v>-0.135528935012</v>
+        <v>-0.160432976373</v>
       </c>
       <c r="AJ8">
-        <v>0.60473954108399997</v>
+        <v>-0.29212619805099999</v>
+      </c>
+      <c r="AK8">
+        <v>0.12588326720599999</v>
+      </c>
+      <c r="AL8">
+        <v>2.6860080919100002E-3</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.58488456377099995</v>
+      </c>
+      <c r="AN8">
+        <v>-0.52445928089100002</v>
+      </c>
+      <c r="AO8">
+        <v>-0.24456894605500001</v>
       </c>
       <c r="AP8">
-        <v>-1</v>
+        <v>0.50951346075299997</v>
+      </c>
+      <c r="AQ8">
+        <v>-0.89539356211499999</v>
+      </c>
+      <c r="AR8">
+        <v>-2.2398202498600001E-2</v>
       </c>
       <c r="AS8">
-        <v>-1</v>
+        <v>-0.45352557114699998</v>
       </c>
       <c r="AT8">
-        <v>-0.262677256548</v>
+        <v>0.141105259713</v>
       </c>
       <c r="AU8">
-        <v>0.40437893063300001</v>
+        <v>0.62438329691700001</v>
+      </c>
+      <c r="AV8">
+        <v>0.58687258484100002</v>
       </c>
       <c r="AW8">
-        <v>-2.72508981192E-2</v>
+        <v>0.15527866286100001</v>
+      </c>
+      <c r="AX8">
+        <v>-0.71747552599300002</v>
       </c>
       <c r="AY8">
-        <v>-0.111004367043</v>
+        <v>-0.43088450090399999</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.10530215002</v>
+      </c>
+      <c r="BA8">
+        <v>-0.13176537506399999</v>
       </c>
       <c r="BB8">
-        <v>0.95298567119599997</v>
+        <v>0.134659628753</v>
       </c>
       <c r="BC8">
-        <v>-0.230217281518</v>
+        <v>0.25517052825600001</v>
+      </c>
+      <c r="BD8">
+        <v>-0.75605206362999999</v>
       </c>
       <c r="BE8">
-        <v>-0.16635577968900001</v>
+        <v>-0.27295213495999998</v>
+      </c>
+      <c r="BF8">
+        <v>-0.32438544800300001</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>-0.63270579386299997</v>
+      </c>
+      <c r="BH8">
+        <v>-0.20887080173399999</v>
+      </c>
+      <c r="BI8">
+        <v>-0.26468706705700001</v>
+      </c>
+      <c r="BJ8">
+        <v>-0.359273963556</v>
+      </c>
+      <c r="BK8">
+        <v>1.4006676322E-2</v>
+      </c>
+      <c r="BL8">
+        <v>0.12512982349499999</v>
+      </c>
+      <c r="BM8">
+        <v>-0.74369075173499999</v>
+      </c>
+      <c r="BN8">
+        <v>-8.1996249324199993E-2</v>
+      </c>
+      <c r="BO8">
+        <v>-0.52723271725999998</v>
+      </c>
+      <c r="BP8">
+        <v>-0.58868273800299997</v>
+      </c>
+      <c r="BQ8">
+        <v>-0.46785467467300001</v>
+      </c>
+      <c r="BR8">
+        <v>-0.63165549902600004</v>
+      </c>
+      <c r="BS8">
+        <v>-0.42965296230599997</v>
+      </c>
+      <c r="BT8">
+        <v>8.4844312115299997E-2</v>
+      </c>
+      <c r="BU8">
+        <v>0.124058196004</v>
+      </c>
+      <c r="BV8">
+        <v>-0.26769686825200001</v>
+      </c>
+      <c r="BW8">
+        <v>-0.18531153498399999</v>
+      </c>
+      <c r="BX8">
+        <v>0.121007908081</v>
       </c>
       <c r="CA8">
         <f t="shared" si="0"/>
-        <v>4.9678604944427773E-2</v>
+        <v>-0.23943458844805846</v>
       </c>
       <c r="CB8">
         <f t="shared" si="1"/>
-        <v>0.58918875130169135</v>
+        <v>0.43361232387930543</v>
       </c>
     </row>
     <row r="9" spans="1:80">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>-0.35034940782700003</v>
-      </c>
       <c r="D9">
-        <v>0.85063782406099997</v>
-      </c>
-      <c r="E9">
+        <v>-0.55441988208899995</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0.555109672745</v>
-      </c>
-      <c r="H9">
-        <v>0.59191518325400005</v>
-      </c>
       <c r="I9">
-        <v>-0.273642087629</v>
-      </c>
-      <c r="K9">
-        <v>0.53551377281000001</v>
+        <v>-0.52450505064399999</v>
       </c>
       <c r="L9">
-        <v>0.53933953680500002</v>
+        <v>-0.95221959198200001</v>
       </c>
       <c r="M9">
-        <v>-0.40900033129300001</v>
+        <v>-0.99820386030800001</v>
       </c>
       <c r="N9">
-        <v>-1.70544492357E-2</v>
+        <v>-9.5108242292199996E-2</v>
       </c>
       <c r="O9">
-        <v>-0.488819679698</v>
+        <v>-0.32549201026699998</v>
       </c>
       <c r="P9">
-        <v>-0.208027432112</v>
+        <v>0.58231494342300005</v>
       </c>
       <c r="Q9">
-        <v>0.407706016713</v>
+        <v>0.50323197247399998</v>
       </c>
       <c r="R9">
-        <v>3.8832052660300001E-2</v>
+        <v>0.56460262993900001</v>
+      </c>
+      <c r="S9">
+        <v>-0.40170864327</v>
       </c>
       <c r="T9">
-        <v>2.94627011893E-2</v>
+        <v>-0.13236534390099999</v>
       </c>
       <c r="U9">
-        <v>0.53833196617599999</v>
+        <v>0.174616877143</v>
       </c>
       <c r="V9">
-        <v>7.95673020979E-2</v>
+        <v>-0.211489457022</v>
       </c>
       <c r="W9">
-        <v>-3.3072214886599997E-2</v>
+        <v>-0.116529967516</v>
       </c>
       <c r="X9">
-        <v>0.16806139863899999</v>
+        <v>-0.18196313124800001</v>
       </c>
       <c r="Y9">
-        <v>-0.98417352886999998</v>
-      </c>
-      <c r="Z9">
-        <v>0.68290484936600004</v>
+        <v>-0.13643006999900001</v>
       </c>
       <c r="AA9">
-        <v>0.704691179813</v>
+        <v>0.41789669083800002</v>
       </c>
       <c r="AB9">
+        <v>5.3126293675799997E-2</v>
+      </c>
+      <c r="AD9">
+        <v>0.62863697961200005</v>
+      </c>
+      <c r="AG9">
+        <v>0.46536901644899997</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>-0.135528935012</v>
+      </c>
+      <c r="AJ9">
+        <v>0.60473954108399997</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
         <v>-1</v>
       </c>
-      <c r="AC9">
-        <v>0.26228876549000002</v>
-      </c>
-      <c r="AD9">
-        <v>0.10057288592999999</v>
-      </c>
-      <c r="AF9">
-        <v>0.29844835884499998</v>
-      </c>
-      <c r="AG9">
-        <v>0.211061123372</v>
-      </c>
-      <c r="AH9">
-        <v>-0.62671189639199998</v>
-      </c>
-      <c r="AI9">
+      <c r="AS9">
         <v>-1</v>
       </c>
-      <c r="AJ9">
-        <v>0.38201789583700002</v>
-      </c>
-      <c r="AK9">
-        <v>0.42641563528199999</v>
-      </c>
-      <c r="AL9">
-        <v>-0.435149614859</v>
-      </c>
-      <c r="AM9">
-        <v>-1</v>
-      </c>
-      <c r="AN9">
-        <v>0.24065044292500001</v>
-      </c>
-      <c r="AO9">
-        <v>0.89098019953100005</v>
-      </c>
-      <c r="AP9">
-        <v>-0.66730412171200004</v>
-      </c>
-      <c r="AQ9">
-        <v>7.2284394815799999E-2</v>
-      </c>
-      <c r="AR9">
-        <v>-0.308016869814</v>
-      </c>
-      <c r="AS9">
-        <v>-0.64194037009000005</v>
-      </c>
       <c r="AT9">
-        <v>-0.26538799487600001</v>
+        <v>-0.262677256548</v>
       </c>
       <c r="AU9">
+        <v>0.40437893063300001</v>
+      </c>
+      <c r="AW9">
+        <v>-2.72508981192E-2</v>
+      </c>
+      <c r="AY9">
+        <v>-0.111004367043</v>
+      </c>
+      <c r="BB9">
+        <v>0.95298567119599997</v>
+      </c>
+      <c r="BC9">
+        <v>-0.230217281518</v>
+      </c>
+      <c r="BE9">
+        <v>-0.16635577968900001</v>
+      </c>
+      <c r="BG9">
         <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>0.31907480056199999</v>
-      </c>
-      <c r="AX9">
-        <v>0.61645424678399996</v>
-      </c>
-      <c r="AY9">
-        <v>-0.45495932623200003</v>
-      </c>
-      <c r="AZ9">
-        <v>-8.4746235678499995E-2</v>
       </c>
       <c r="CA9">
         <f t="shared" si="0"/>
-        <v>4.9868840097793472E-2</v>
+        <v>4.9678604944427773E-2</v>
       </c>
       <c r="CB9">
         <f t="shared" si="1"/>
-        <v>0.55008036704713659</v>
+        <v>0.58918875130169135</v>
       </c>
     </row>
     <row r="10" spans="1:80">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.22911256787600001</v>
+        <v>-0.35034940782700003</v>
       </c>
       <c r="D10">
-        <v>-0.37102626026699997</v>
+        <v>0.85063782406099997</v>
       </c>
       <c r="E10">
-        <v>-0.52906723416000001</v>
-      </c>
-      <c r="F10">
-        <v>-0.74724155773199996</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>8.9404466899999993E-2</v>
+        <v>0.555109672745</v>
       </c>
       <c r="H10">
-        <v>0.248705173334</v>
+        <v>0.59191518325400005</v>
       </c>
       <c r="I10">
-        <v>0.10159775731200001</v>
-      </c>
-      <c r="J10">
-        <v>-0.37600194699599998</v>
+        <v>-0.273642087629</v>
       </c>
       <c r="K10">
-        <v>0.23546564673000001</v>
+        <v>0.53551377281000001</v>
       </c>
       <c r="L10">
-        <v>-0.44278627945299998</v>
+        <v>0.53933953680500002</v>
       </c>
       <c r="M10">
-        <v>0.12992317788800001</v>
+        <v>-0.40900033129300001</v>
       </c>
       <c r="N10">
-        <v>-0.151371048221</v>
+        <v>-1.70544492357E-2</v>
       </c>
       <c r="O10">
-        <v>-0.57568822159499999</v>
+        <v>-0.488819679698</v>
       </c>
       <c r="P10">
-        <v>-0.593647145318</v>
+        <v>-0.208027432112</v>
       </c>
       <c r="Q10">
-        <v>0.65561715401499998</v>
+        <v>0.407706016713</v>
       </c>
       <c r="R10">
-        <v>-0.88617197776099998</v>
-      </c>
-      <c r="S10">
-        <v>0.42946594593600002</v>
+        <v>3.8832052660300001E-2</v>
       </c>
       <c r="T10">
-        <v>0.21824527761599999</v>
+        <v>2.94627011893E-2</v>
       </c>
       <c r="U10">
-        <v>-6.2915411851799996E-2</v>
+        <v>0.53833196617599999</v>
       </c>
       <c r="V10">
-        <v>-0.99761653625400004</v>
+        <v>7.95673020979E-2</v>
       </c>
       <c r="W10">
-        <v>-8.6220646087699998E-2</v>
+        <v>-3.3072214886599997E-2</v>
       </c>
       <c r="X10">
-        <v>-0.27384519195700002</v>
+        <v>0.16806139863899999</v>
+      </c>
+      <c r="Y10">
+        <v>-0.98417352886999998</v>
       </c>
       <c r="Z10">
-        <v>-0.99824331560199997</v>
+        <v>0.68290484936600004</v>
       </c>
       <c r="AA10">
-        <v>-0.16114350818699999</v>
+        <v>0.704691179813</v>
       </c>
       <c r="AB10">
-        <v>3.3685726485799997E-2</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-0.91019836159300005</v>
+        <v>0.26228876549000002</v>
       </c>
       <c r="AD10">
-        <v>6.9172563764099998E-2</v>
-      </c>
-      <c r="AE10">
-        <v>-0.35330628134800002</v>
+        <v>0.10057288592999999</v>
       </c>
       <c r="AF10">
-        <v>-0.94409490825300002</v>
+        <v>0.29844835884499998</v>
+      </c>
+      <c r="AG10">
+        <v>0.211061123372</v>
       </c>
       <c r="AH10">
-        <v>-0.96540586376299997</v>
+        <v>-0.62671189639199998</v>
       </c>
       <c r="AI10">
-        <v>-0.213036043363</v>
+        <v>-1</v>
       </c>
       <c r="AJ10">
-        <v>-0.31819906089200001</v>
+        <v>0.38201789583700002</v>
       </c>
       <c r="AK10">
-        <v>-0.21210910612799999</v>
+        <v>0.42641563528199999</v>
       </c>
       <c r="AL10">
-        <v>-2.3117690811299999E-2</v>
+        <v>-0.435149614859</v>
       </c>
       <c r="AM10">
-        <v>0.60473954108399997</v>
+        <v>-1</v>
       </c>
       <c r="AN10">
-        <v>0.594677013867</v>
+        <v>0.24065044292500001</v>
       </c>
       <c r="AO10">
-        <v>-0.732179433436</v>
+        <v>0.89098019953100005</v>
       </c>
       <c r="AP10">
-        <v>-5.9165829094399998E-2</v>
+        <v>-0.66730412171200004</v>
       </c>
       <c r="AQ10">
-        <v>0.96006418229299995</v>
+        <v>7.2284394815799999E-2</v>
       </c>
       <c r="AR10">
-        <v>-0.85985186431799998</v>
+        <v>-0.308016869814</v>
       </c>
       <c r="AS10">
-        <v>-0.106376386349</v>
+        <v>-0.64194037009000005</v>
       </c>
       <c r="AT10">
-        <v>-0.45991038518999999</v>
+        <v>-0.26538799487600001</v>
       </c>
       <c r="AU10">
-        <v>7.6834099071100004E-2</v>
-      </c>
-      <c r="AV10">
-        <v>0.62438329691700001</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.78786664911199999</v>
+        <v>0.31907480056199999</v>
       </c>
       <c r="AX10">
-        <v>-9.8204611565500005E-2</v>
+        <v>0.61645424678399996</v>
       </c>
       <c r="AY10">
-        <v>-0.71973047384599997</v>
+        <v>-0.45495932623200003</v>
       </c>
       <c r="AZ10">
-        <v>-8.4873192471900005E-2</v>
-      </c>
-      <c r="BA10">
-        <v>-0.228945862349</v>
-      </c>
-      <c r="BB10">
-        <v>0.154569874174</v>
-      </c>
-      <c r="BC10">
-        <v>0.55275953089499996</v>
-      </c>
-      <c r="BD10">
-        <v>0.1237735651</v>
-      </c>
-      <c r="BE10">
-        <v>-0.62238925350499996</v>
-      </c>
-      <c r="BF10">
-        <v>0.15579542041200001</v>
-      </c>
-      <c r="BG10">
-        <v>-0.58664741864199998</v>
-      </c>
-      <c r="BH10">
-        <v>-0.66804210978199996</v>
-      </c>
-      <c r="BI10">
-        <v>-0.231843701564</v>
-      </c>
-      <c r="BJ10">
-        <v>-0.26122463304499999</v>
-      </c>
-      <c r="BK10">
-        <v>-0.43483354005399999</v>
-      </c>
-      <c r="BL10">
-        <v>2.1649351916600001E-2</v>
-      </c>
-      <c r="BM10">
-        <v>0.94473570037099996</v>
-      </c>
-      <c r="BN10">
-        <v>-0.78996943210000004</v>
-      </c>
-      <c r="BO10">
-        <v>-6.7115781245899994E-2</v>
-      </c>
-      <c r="BP10">
-        <v>-0.57477047476499998</v>
-      </c>
-      <c r="BQ10">
-        <v>-0.62749482745600005</v>
-      </c>
-      <c r="BR10">
-        <v>-0.50791801718600005</v>
-      </c>
-      <c r="BS10">
-        <v>-0.40813096064100002</v>
-      </c>
-      <c r="BT10">
-        <v>3.7908296017399999E-2</v>
-      </c>
-      <c r="BV10">
-        <v>0.19778688064700001</v>
-      </c>
-      <c r="BW10">
-        <v>-1</v>
-      </c>
-      <c r="BX10">
-        <v>-0.18531153498399999</v>
-      </c>
-      <c r="BY10">
-        <v>-0.92044037159299996</v>
+        <v>-8.4746235678499995E-2</v>
       </c>
       <c r="CA10">
         <f t="shared" si="0"/>
-        <v>-0.19383403880880135</v>
+        <v>4.9868840097793472E-2</v>
       </c>
       <c r="CB10">
         <f t="shared" si="1"/>
+        <v>0.55008036704713659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.22911256787600001</v>
+      </c>
+      <c r="D11">
+        <v>-0.37102626026699997</v>
+      </c>
+      <c r="E11">
+        <v>-0.52906723416000001</v>
+      </c>
+      <c r="F11">
+        <v>-0.74724155773199996</v>
+      </c>
+      <c r="G11">
+        <v>8.9404466899999993E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.248705173334</v>
+      </c>
+      <c r="I11">
+        <v>0.10159775731200001</v>
+      </c>
+      <c r="J11">
+        <v>-0.37600194699599998</v>
+      </c>
+      <c r="K11">
+        <v>0.23546564673000001</v>
+      </c>
+      <c r="L11">
+        <v>-0.44278627945299998</v>
+      </c>
+      <c r="M11">
+        <v>0.12992317788800001</v>
+      </c>
+      <c r="N11">
+        <v>-0.151371048221</v>
+      </c>
+      <c r="O11">
+        <v>-0.57568822159499999</v>
+      </c>
+      <c r="P11">
+        <v>-0.593647145318</v>
+      </c>
+      <c r="Q11">
+        <v>0.65561715401499998</v>
+      </c>
+      <c r="R11">
+        <v>-0.88617197776099998</v>
+      </c>
+      <c r="S11">
+        <v>0.42946594593600002</v>
+      </c>
+      <c r="T11">
+        <v>0.21824527761599999</v>
+      </c>
+      <c r="U11">
+        <v>-6.2915411851799996E-2</v>
+      </c>
+      <c r="V11">
+        <v>-0.99761653625400004</v>
+      </c>
+      <c r="W11">
+        <v>-8.6220646087699998E-2</v>
+      </c>
+      <c r="X11">
+        <v>-0.27384519195700002</v>
+      </c>
+      <c r="Z11">
+        <v>-0.99824331560199997</v>
+      </c>
+      <c r="AA11">
+        <v>-0.16114350818699999</v>
+      </c>
+      <c r="AB11">
+        <v>3.3685726485799997E-2</v>
+      </c>
+      <c r="AC11">
+        <v>-0.91019836159300005</v>
+      </c>
+      <c r="AD11">
+        <v>6.9172563764099998E-2</v>
+      </c>
+      <c r="AE11">
+        <v>-0.35330628134800002</v>
+      </c>
+      <c r="AF11">
+        <v>-0.94409490825300002</v>
+      </c>
+      <c r="AH11">
+        <v>-0.96540586376299997</v>
+      </c>
+      <c r="AI11">
+        <v>-0.213036043363</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.31819906089200001</v>
+      </c>
+      <c r="AK11">
+        <v>-0.21210910612799999</v>
+      </c>
+      <c r="AL11">
+        <v>-2.3117690811299999E-2</v>
+      </c>
+      <c r="AM11">
+        <v>0.60473954108399997</v>
+      </c>
+      <c r="AN11">
+        <v>0.594677013867</v>
+      </c>
+      <c r="AO11">
+        <v>-0.732179433436</v>
+      </c>
+      <c r="AP11">
+        <v>-5.9165829094399998E-2</v>
+      </c>
+      <c r="AQ11">
+        <v>0.96006418229299995</v>
+      </c>
+      <c r="AR11">
+        <v>-0.85985186431799998</v>
+      </c>
+      <c r="AS11">
+        <v>-0.106376386349</v>
+      </c>
+      <c r="AT11">
+        <v>-0.45991038518999999</v>
+      </c>
+      <c r="AU11">
+        <v>7.6834099071100004E-2</v>
+      </c>
+      <c r="AV11">
+        <v>0.62438329691700001</v>
+      </c>
+      <c r="AW11">
+        <v>0.78786664911199999</v>
+      </c>
+      <c r="AX11">
+        <v>-9.8204611565500005E-2</v>
+      </c>
+      <c r="AY11">
+        <v>-0.71973047384599997</v>
+      </c>
+      <c r="AZ11">
+        <v>-8.4873192471900005E-2</v>
+      </c>
+      <c r="BA11">
+        <v>-0.228945862349</v>
+      </c>
+      <c r="BB11">
+        <v>0.154569874174</v>
+      </c>
+      <c r="BC11">
+        <v>0.55275953089499996</v>
+      </c>
+      <c r="BD11">
+        <v>0.1237735651</v>
+      </c>
+      <c r="BE11">
+        <v>-0.62238925350499996</v>
+      </c>
+      <c r="BF11">
+        <v>0.15579542041200001</v>
+      </c>
+      <c r="BG11">
+        <v>-0.58664741864199998</v>
+      </c>
+      <c r="BH11">
+        <v>-0.66804210978199996</v>
+      </c>
+      <c r="BI11">
+        <v>-0.231843701564</v>
+      </c>
+      <c r="BJ11">
+        <v>-0.26122463304499999</v>
+      </c>
+      <c r="BK11">
+        <v>-0.43483354005399999</v>
+      </c>
+      <c r="BL11">
+        <v>2.1649351916600001E-2</v>
+      </c>
+      <c r="BM11">
+        <v>0.94473570037099996</v>
+      </c>
+      <c r="BN11">
+        <v>-0.78996943210000004</v>
+      </c>
+      <c r="BO11">
+        <v>-6.7115781245899994E-2</v>
+      </c>
+      <c r="BP11">
+        <v>-0.57477047476499998</v>
+      </c>
+      <c r="BQ11">
+        <v>-0.62749482745600005</v>
+      </c>
+      <c r="BR11">
+        <v>-0.50791801718600005</v>
+      </c>
+      <c r="BS11">
+        <v>-0.40813096064100002</v>
+      </c>
+      <c r="BT11">
+        <v>3.7908296017399999E-2</v>
+      </c>
+      <c r="BV11">
+        <v>0.19778688064700001</v>
+      </c>
+      <c r="BW11">
+        <v>-1</v>
+      </c>
+      <c r="BX11">
+        <v>-0.18531153498399999</v>
+      </c>
+      <c r="BY11">
+        <v>-0.92044037159299996</v>
+      </c>
+      <c r="CA11">
+        <f t="shared" si="0"/>
+        <v>-0.19383403880880135</v>
+      </c>
+      <c r="CB11">
+        <f t="shared" si="1"/>
         <v>0.48883631317665682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:80">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:80">
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <f t="array" ref="C14:C22">FREQUENCY(B2:BY2,B14:B22)</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="array" ref="D14:D22">FREQUENCY(B3:BY3,B14:B22)</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="array" ref="E14:E22">FREQUENCY(B4:BY4,B14:B22)</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="array" ref="F14:F22">FREQUENCY(B5:BY5,B14:B22)</f>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:80">
       <c r="B15">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <f t="array" ref="C15:C23">FREQUENCY(B3:BY3,B15:B23)</f>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <f t="array" ref="D15:D23">FREQUENCY(B4:BY4,B15:B23)</f>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <f t="array" ref="E15:E23">FREQUENCY(B5:BY5,B15:B23)</f>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <f t="array" ref="F15:F23">FREQUENCY(B6:BY6,B15:B23)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:80">
       <c r="B16">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>11</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
         <v>10</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22">
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26">
-        <v>-1</v>
-      </c>
-      <c r="C26">
-        <f t="array" ref="C26:C34">FREQUENCY(B7:BY7,B26:B34)</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <f t="array" ref="D26:D34">FREQUENCY(B8:BY8,B26:B34)</f>
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f t="array" ref="E26:E34">FREQUENCY(B9:BY9,B26:B34)</f>
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <f t="array" ref="F26:F34">FREQUENCY(B10:BY10,B26:B34)</f>
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <f t="array" ref="C27:C35">FREQUENCY(B8:BY8,B27:B35)</f>
+        <v>1</v>
       </c>
       <c r="D27">
+        <f t="array" ref="D27:D35">FREQUENCY(B9:BY9,B27:B35)</f>
         <v>2</v>
       </c>
       <c r="E27">
+        <f t="array" ref="E27:E35">FREQUENCY(B10:BY10,B27:B35)</f>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f t="array" ref="F27:F35">FREQUENCY(B11:BY11,B27:B35)</f>
         <v>1</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
       <c r="F29">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>16</v>
@@ -4069,52 +5556,69 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
       <c r="F33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
